--- a/excel/Ebay.xlsx
+++ b/excel/Ebay.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>LEGO Star Wars: Jedi Scout Fighter (75051) - Nueva Caja ligeramente dañada - ver fotos</t>
+          <t>LEGO Star Wars: 75373 | 75344 | 75391 - 3x Juegos LEGO Completos 'Nuevo'</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -463,14 +463,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MXN $937.97</t>
+          <t>MXN $698.74</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>LEGO Star Wars: Umbaran Mhc (Mobile Heavy Cannon) (75013) - Usado - ver detalles</t>
+          <t>LEGO Star Wars: AT-TE (4482)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -480,14 +480,14 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MXN $1 345.01</t>
+          <t>MXN $4 310.77</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>LEGO Star Wars: Coruscant Guard Gunship (75354)</t>
+          <t>Lego Star Wars Jedi Masters Set de Regalo 3 Construcciones Épicas en 1 Caja Juguete Edificio 66787</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -497,31 +497,31 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MXN $1 752.06</t>
+          <t>MXN $1 566.57</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>LEGO Star Wars: Castillo de Darth Vader (75251)</t>
+          <t>Lego Star Wars 75103 Transportador Primer Orden - Sin Minifiguras</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Totalmente nuevo</t>
+          <t>De segunda mano</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MXN $2 459.96</t>
+          <t>MXN $293.92</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LEGO Star Wars MTT Droid Carrier 75058 Naboo Star Fighter 7877 Completo Retirado</t>
+          <t>Lego Star Wars Imperial Star Destroyer 75394 Construir SOLO Sin Minifiguras</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -531,31 +531,31 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MXN $2 574.99</t>
+          <t>MXN $1 974.21</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Lego 75388 Star Wars Jedi Bob's Starfighter Nuevo Precintado</t>
+          <t>LEGO Star Wars: Mandalorian Battle Pack (7914)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Totalmente nuevo</t>
+          <t>De segunda mano</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MXN $1 415.80</t>
+          <t>MXN $374.99</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Lego Star Wars Jengo Fett Slave 1 7153</t>
+          <t>LEGO Star Wars: Clone Turbo Tank -7261</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -565,14 +565,14 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MXN $2 062.02</t>
+          <t>MXN $2 253.36</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>star wars lego</t>
+          <t>LEGO Star Wars Minifigura TC-14 Polybag Set 5000063 Nuevo Sellado Raro</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -582,41 +582,1911 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>MXN $22.68</t>
+          <t>MXN $862.15</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>figuras bionicle lego star wars</t>
+          <t>LEGO Star Wars: Galactic Empire Battle Pack Sellado (75134) Nuevo en Caja Retirado</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>De segunda mano</t>
+          <t>Totalmente nuevo</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MXN $572.85</t>
+          <t>MXN $979.72</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>LEGO Star Wars: Sandcrawler (75220) 100% Completo con Caja y Manual LEER</t>
+          <t>LEGO Star Wars #75134 Paquete de Batalla Imperio Galáctico 100% Completo con Minifiguras</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>De segunda mano</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>MXN $685.80</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>NUEVO (otros) LEGO Star Wars 75388 Jedi Bob's Starfighter ¡SE ENVÍA INMEDIATAMENTE!</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>Nuevo (otro)</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>MXN $3 981.95</t>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>MXN $410.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>LEGO Star Wars: Naboo Fighter (7141) Completo con Minifiguras</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>De segunda mano</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>MXN $749.74</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>LEGO Star Wars: Dark Trooper Attack (75324)</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Totalmente nuevo</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>MXN $97.97</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>*SELLADO* R2-D2 LEGO 75379 Star Wars 2024 con minifigura Darth Malak 25 años</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Totalmente nuevo</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>MXN $1 312.82</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>LEGO Star Wars: Kylo Ren's TIE Fighter (75179)</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Totalmente nuevo</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>MXN $2 792.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>LEGO 75389 Star Wars Dark Millennium Falcon ENVÍO SOLO SIN MINIFIGURAS SE ENVÍA HOY</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Nuevo (otro)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>MXN $2 351.33</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>NO MARCA LEGO Star Wars: Republic Dropship con AT-OT Walker</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Totalmente nuevo</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>MXN $4 440.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LEGO Star Wars: Republic Frigate (7964) - Sin minifiguras</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>De segunda mano</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>MXN $2 253.36</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>LEGO Star Wars: 501st Legion Clone Troopers (75280)</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Totalmente nuevo</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>MXN $19.40</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>LEGO Star Wars: Infiltrado Sith (7663) SIN MINIFIGURAS</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>De segunda mano</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>MXN $391.89</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>LEGO Star Wars: Umbaran Mhc (Mobile Heavy Cannon) (75013) ¡Sellado de fábrica!</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Totalmente nuevo</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>MXN $2 694.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>LEGO Star Wars Naboo Starfighter (75092) Anakin y R2 figuras solo con instrucciones</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>De segunda mano</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>MXN $489.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>JUEGO LEGO STAR WARS NUEVO</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Totalmente nuevo</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>MXN $258.74 a MXN $2 777.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>LEGO Star Wars: Obi-Wan's Hut (75270)</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>De segunda mano</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>MXN $254.73</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>LEGO Star Wars: Clone Trooper &amp; Battle Droid Battle Pack (75372)</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Totalmente nuevo</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>MXN $411.48</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>LEGO Star Wars Galactic Adventures Pack 66708 Nuevo 3 CONJUNTOS 75311 75310 75299</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Totalmente nuevo</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>MXN $1 410.80</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>LEGO STAR WARS 7752"COUNT DOOKU'S SOLAR SAILER" LEER</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>De segunda mano</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>MXN $1 665.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>LEGO 75388 Star Wars Jedi Bob’s Starfighter en mano envío a todo el mundo nuevo</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Totalmente nuevo</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>MXN $979.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>LEGO Star Wars: El Fantasma (75048) 2014 Retirado Nuevo Precintado 234 Piezas</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Totalmente nuevo</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>MXN $2 351.33</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>75315 LEGO Star Wars The Mandalorian Imperial Light Cruiser, Nuevo, Retirado</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Totalmente nuevo</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>MXN $1 704.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Juegos Lego Star Wars plumín 75364, 75365</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Totalmente nuevo</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>MXN $2 743.22</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>LEGO Star Wars: Republic Gunship (7163)</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>De segunda mano</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>MXN $979.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>LEGO Star Wars: Republic Striker-Class Starfighter (9497) - Usado Ver Detalles</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>De segunda mano</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>MXN $646.62</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>PRE-ORDEN! LEGO Star Wars: Desert Skiff &amp; Sarlacc Pit (75396)</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Totalmente nuevo</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>MXN $1 749.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>LEGO 75296 Star Wars Darth Vader Cámara de Meditación</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Totalmente nuevo</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>MXN $1 534.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Lego Star Wars: Tanque de Asalto Blindado (AAT) (75283) Faltan algunas minifiguras</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>De segunda mano</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>MXN $97.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>NUEVO SELLADO Lego Star Wars Darth Maul Minifigura Polybag Foil Pack 912285</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Totalmente nuevo</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>MXN $194.96</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Lego Star Wars 75312 Boba Fett’s Starship - 100% Completo con Caja, Manual, Minis</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>De segunda mano</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>MXN $782.80</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>LEGO Star Wars Halcón Milenario 25 Aniversario 75375 Kit de Construcción, 921 Piezas</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Totalmente nuevo</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>MXN $587.83</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>LEGO Star Wars: Y-Wing Starfighter (75181) TODAS LAS FIGURAS+ INSTRUCCIONES</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>De segunda mano</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>MXN $6 270.21</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>LEGO Star Wars Republic Fighter Tank 75342 - SIN MINIFIGURAS INCLUIDAS</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Totalmente nuevo</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>MXN $352.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>LEGO Star Wars: Anakin's Jedi Starfighter (7669)</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>De segunda mano</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>MXN $19.40</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>LEGO Star Wars: Desert Skiff &amp; Sarlacc Pit (75396) sin figuras</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Totalmente nuevo</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>MXN $574.74</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>LEGO Star Wars: The Bad Batch™ Attack Shuttle (75314) 99% completo, ¡solo construcción!</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>De segunda mano</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>MXN $587.83</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Nuevo en caja Lego Star Wars Darth Vader Cámara de Meditación 75296 - Juego Retirado Envío Gratis</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Totalmente nuevo</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>MXN $1 528.36</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Lego 75389 Star Wars Reconstruir la Galaxia Halcón Milenario Oscuro Nuevo Precintado</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Totalmente nuevo</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>MXN $4 310.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>LEGO Star Wars: Infiltrado Sith de colección (7151)</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>De segunda mano</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>MXN $401.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Lego Star Wars Personalizado Sith Cañonero Pesado 100% Piezas de Lego, Basado en la construcción 75021</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Nuevo (otro)</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>MXN $5 799.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Lego 75388 Star Wars Jedi Bob's Starfighter Nuevo Precintado</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Totalmente nuevo</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>MXN $1 567.55</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Lego Star Wars Princesa Leia (Ewok Village) Minifigura 10236</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>De segunda mano</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>MXN $1 077.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Lego 75226 Star Wars Battlefront Inferno Squad Battle Pack sellado</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Totalmente nuevo</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>MXN $1 567.36</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>LEGO Star Wars: La Batalla de Endor (8038) Incompleto Sin Figuras</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>De segunda mano</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>MXN $1 077.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>LEGO Star Wars: R2-D2 (75379) - Sin minifiguras</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Totalmente nuevo</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>MXN $1 124.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>LEGO STAR WARS 75111 DARTH VADER FIGURA EDIFICABLE SEÑOR SITH *RETIRADO *NUEVO EN CAJA</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Totalmente nuevo</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>MXN $1 124.73</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>LEGO Star Wars: Motorizado Caminar AT-AT (10178) 99.8% Motor Completo Funciona</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>De segunda mano</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>MXN $3 899.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>LEGO Star Wars 75342 Republic Fighter Tank sin figuras ni armas Nuevo</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Totalmente nuevo</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>MXN $322.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>LEGO Star Wars: Hh-87 Starhopper (75024) sin minifiguras</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>De segunda mano</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>MXN $999.73</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>LEGO Star Wars 75164 Rebel Trooper Battle Pack 120 Piezas Nuevo en Caja Sellada</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Totalmente nuevo</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>MXN $685.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>LEGO Star Wars Hoth Cámara Médica 75203 Nuevo Precintado En Caja</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>De segunda mano</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>MXN $1 415.83</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>LEGO Star Wars: Traición en Ciudad Nube (75222)</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>De segunda mano</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>MXN $5 878.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>LEGO Star Wars Naboo Droid Tank (Falta droide)</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>De segunda mano</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>MXN $799.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>LEGO Star Wars: Republic Gunship (7163)</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>De segunda mano</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>MXN $979.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>LEGO® Star Wars™ The Mandalorian's N-1 Starfighter 75325 ENVÍO RÁPIDO</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Totalmente nuevo</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>MXN $783.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>LEGO Star Wars: Y-Wing Starfighter (75181) TODAS LAS FIGURAS+ INSTRUCCIONES</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>De segunda mano</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>MXN $6 270.21</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>LEGO Star Wars 75393 TIE Fighter y X-Wing Mash-up Age 1063 piezas NUEVO Y CAJA SELLADA</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Totalmente nuevo</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>MXN $999.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>LEGO Star Wars: Motorizado Caminar AT-AT (10178) 99.8% Motor Completo Funciona</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>De segunda mano</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>MXN $3 899.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>LEGO 75296 Star Wars Darth Vader Cámara de Meditación</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Totalmente nuevo</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>MXN $1 534.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>LEGO STAR WARS 75111 DARTH VADER FIGURA EDIFICABLE SEÑOR SITH *RETIRADO *NUEVO EN CAJA</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Totalmente nuevo</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>MXN $1 124.73</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Nuevo en caja Lego Star Wars Darth Vader Cámara de Meditación 75296 - Juego Retirado Envío Gratis</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Totalmente nuevo</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>MXN $1 528.36</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>LEGO 75280 501ª Legión Clone Troopers Paquete de Batalla Retirado Star Wars Nuevo Precintado</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Totalmente nuevo</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>MXN $842.36</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>NUEVO SELLADO Lego Star Wars Darth Maul Minifigura Polybag Foil Pack 912285</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Totalmente nuevo</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>MXN $194.96</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>LEGO Star Wars: Clone Trooper &amp; Battle Droid Battle Pack (75372)</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Totalmente nuevo</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>MXN $411.48</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>LEGO Star Wars Ezra Bridger Minifigura de Duelo en Peridea 75385</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Totalmente nuevo</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>MXN $254.73</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>LEGO Star Wars: The Bad Batch™ Attack Shuttle (75314)</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Totalmente nuevo</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>MXN $2 743.22</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>LEGO Star Wars: R2-D2™ (75308) Edición 50 Aniversario - Construido</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>De segunda mano</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>MXN $646.62</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Lego Star Wars 75179 - Kylo Ren's TIE Fighter abierto incompleto sin figuras</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>De segunda mano</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>MXN $764.18</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Lego 75388 Star Wars Jedi Bob's Starfighter Nuevo Precintado</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Totalmente nuevo</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>MXN $1 567.55</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Lego Star Wars Jedi Temple Guard- 75158- 75359- Nuevo Polybag</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Totalmente nuevo</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>MXN $254.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Lego 75226 Star Wars Battlefront Inferno Squad Battle Pack sellado</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Totalmente nuevo</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>MXN $1 567.36</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>PRE-ORDEN! LEGO Star Wars: Desert Skiff &amp; Sarlacc Pit (75396)</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Totalmente nuevo</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>MXN $1 749.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Lego 75389 Star Wars Reconstruir la Galaxia Halcón Milenario Oscuro Nuevo Precintado</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Totalmente nuevo</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>MXN $4 310.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Lego 75173 Star Wars Luke's Landspeeder GB|Sellado | RETIRADO de 2017</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Totalmente nuevo</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>MXN $882.48</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>LEGO Star Wars: Endor Speeder Chase Diorama (75353) 18+ Nuevo y precintado</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Totalmente nuevo</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>MXN $1 099.73</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>LEGO 40333 Star Wars: Battle of Hoth Edición 20 Aniversario - COMPLETO - leer</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Nuevo (otro)</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>MXN $685.80</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>LEGO STAR WARS 7752"COUNT DOOKU'S SOLAR SAILER" LEER</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>De segunda mano</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>MXN $1 665.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Lego Star Wars: Tanque de Asalto Blindado (AAT) (75283) Faltan algunas minifiguras</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>De segunda mano</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>MXN $97.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>LEGO Star Wars Darth Vader Minifigura + Caja de Lata Edición Limitada (¡¡NUEVO SELLADO!!!)</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Totalmente nuevo</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>MXN $352.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>LEGO Star Wars R3-M2 Polybag 40268 (SELLADO)</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Totalmente nuevo</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>MXN $312.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>LEGO Star Wars: Duelo en Geonosis (75017) sin minifiguras/minifigura acc</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Nuevo (otro)</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>MXN $2 350.35</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>LEGO Star Wars: Obi-Wan Kenobi vs. Darth Vader (75334) Sin caja</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Nuevo (otro)</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>MXN $225.34</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>LEGO Star Wars: Bounty Hunter Assault Gunship (7930) Nuevo En Caja, Retirado</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Totalmente nuevo</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>MXN $2 351.33</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Lego 75389 Star Wars Reconstruye la Galaxia Halcón Milenario Oscuro (SIN MINIFIGURAS)</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Nuevo (otro)</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>MXN $2 351.33</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Endor Rebel &amp; Imperial Trooper Battle Pack #9489 LEGO Star Wars Set Nuevo</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Totalmente nuevo</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>MXN $979.33</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>**NUEVO** 100% Precisa LEGO Star Wars Lucas Yoda Fuente - 6471930 - 152 Piezas</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Totalmente nuevo</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>MXN $1 547.76</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Lego 7673 Star Wars Magna Guard Starfighter sin caja</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>De segunda mano</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>MXN $1 077.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>LEGO Star Wars: AT-TE Walker (7675)</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>De segunda mano</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>MXN $1 959.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>LEGO® Star Wars Mos Espa Podrace Juego de Construcción 75380 NUEVO</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Totalmente nuevo</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>MXN $999.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>LEGO Star Wars: Galactic Adventures Pack (66708) - Nuevo, Precintado</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Totalmente nuevo</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>MXN $1 685.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>LEGO Star Wars: Y-Wing Starfighter (75181)</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Totalmente nuevo</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>MXN $10 287.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>LEGO Star Wars - Batalla de Endor (40362) Nuevo En Caja Nuevo En Caja Diorama Promocional</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Totalmente nuevo</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>MXN $862.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>LEGO 75249 - Star Wars: Resistance Y-Wing Starfighter 🙂 Retirado 🙂 *Nuevo y sellado*</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Totalmente nuevo</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>MXN $1 566.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Lego 40686 Star Wars Federación de Comercio Portador Nuevo Sellado + Bolsa de Monedas/Poliéster 4 de Mayo</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Totalmente nuevo</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>MXN $1 076.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>LEGO Star Wars: The Bad Batch™ Attack Shuttle (75314) 99% completo, ¡solo construcción!</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>De segunda mano</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>MXN $587.83</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>LEGO Star Wars: General Grievous's Starfighter (75286) - Retirado - Nuevo Precintado</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Totalmente nuevo</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>MXN $2 919.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>LEGO Star Wars 30005 Imperial Speeder Bicicleta Nuevo Sellado Retirado Poliebag Set Raro</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Totalmente nuevo</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>MXN $391.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>LEGO Star Wars: Inquisitor Transport Scythe (75336), SIN MINIFIGURAS, SIN CAJA, NUEVO</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Nuevo (otro)</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>MXN $1 371.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>LEGO Star Wars: Anakin's Jedi Starfighter (7669)</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>De segunda mano</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>MXN $19.40</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Lego Brickheadz Star Wars Disney Marvel DC Batman Piratas Boba Fett Iron Man</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Totalmente nuevo</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>MXN $391.89 a MXN $1 175.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>LEGO Star Wars Poe Dameron's X-wing Fighter 75273 NUEVO CAJA SELLADA NSB</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Totalmente nuevo</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>MXN $1 957.48</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>LEGO Star Wars: BARC Speeder Escape Building Toy Set 75378 Nuevo en caja</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Totalmente nuevo</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>MXN $474.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>LEGO Star Wars: Halcón Milenario (75375) 18+ Nuevo y precintado</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Totalmente nuevo</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>MXN $1 174.73</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>LEGO 7661 Jedi Starfighter con Hyperdrive Booster Ring Star Wars Episodio 3 2007</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>De segunda mano</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>MXN $2 165.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>LEGO Star Wars: Clone Trooper Command Station (40558) Nuevo Precintado</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Totalmente nuevo</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>MXN $645.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Nuevo LEGO Star Wars: R2-D2 (75379)</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Totalmente nuevo</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>MXN $1 626.14</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>LEGO Star Wars Capitán Rex Ala Y Microfighter Juguete de Construcción 75391 ENVÍO EL MISMO DÍA</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Totalmente nuevo</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>MXN $480.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>LEGO Star Wars: Imperial Dropship - Edición 20 Aniversario (75262)</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Totalmente nuevo</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>MXN $979.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Lego Star Wars Personalizado Sith Cañonero Pesado 100% Piezas de Lego, Basado en la construcción 75021</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Nuevo (otro)</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>MXN $5 799.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>¡ENVÍO RÁPIDO! LEGO Star Wars AT-AT 75288 (SIN CAJA ORIGINAL) Leer DESCRIPCIÓN.</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Totalmente nuevo</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>MXN $3 526.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>LEGO Star Wars: Traición en Ciudad Nube (75222)</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>De segunda mano</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>MXN $5 878.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Lego Star Wars 75170 El Fantasma Incluye Minifigura Chopper. Completo</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>De segunda mano</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>MXN $1 567.36</t>
         </is>
       </c>
     </row>

--- a/excel/Ebay.xlsx
+++ b/excel/Ebay.xlsx
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>LEGO Star Wars: 75373 | 75344 | 75391 - 3x Juegos LEGO Completos 'Nuevo'</t>
+          <t>LEGO Star Wars: Castillo de Darth Vader (75251) ¡Nuevo en Caja Sellada!</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -463,48 +463,48 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MXN $698.74</t>
+          <t>MXN $193.70</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>LEGO Star Wars: AT-TE (4482)</t>
+          <t>LEGO Star Wars: Obi-Wan Kenobi vs. Darth Vader (75334) Sin caja</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>De segunda mano</t>
+          <t>Nuevo (otro)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MXN $4 310.77</t>
+          <t>MXN $261.50</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Lego Star Wars Jedi Masters Set de Regalo 3 Construcciones Épicas en 1 Caja Juguete Edificio 66787</t>
+          <t>LEGO 75388 Star Wars Jedi Bob's Starfighter - SIN MINIFIGURAS - ¡Solo envío!</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Totalmente nuevo</t>
+          <t>Nuevo (otro)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MXN $1 566.57</t>
+          <t>MXN $484.06</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Lego Star Wars 75103 Transportador Primer Orden - Sin Minifiguras</t>
+          <t>LEGO Star Wars: La Batalla de Endor (8038)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -514,14 +514,14 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MXN $293.92</t>
+          <t>MXN $1 239.49</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Lego Star Wars Imperial Star Destroyer 75394 Construir SOLO Sin Minifiguras</t>
+          <t>LEGO 4002019 STAR WARS NAVIDAD ALA X 20 ANIVERSARIO</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -531,14 +531,14 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MXN $1 974.21</t>
+          <t>MXN $3 874.02</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>LEGO Star Wars: Mandalorian Battle Pack (7914)</t>
+          <t>LEGO Star Wars: Eclipse Fighter (75145) *Solo construcciones*</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -548,99 +548,99 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MXN $374.99</t>
+          <t>MXN $232.44</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LEGO Star Wars: Clone Turbo Tank -7261</t>
+          <t>Lego Star Wars 75394 Destructor Estelar Imperial y 25 Años Llavero Llavero</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>De segunda mano</t>
+          <t>Totalmente nuevo</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MXN $2 253.36</t>
+          <t>MXN $3 519.42</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LEGO Star Wars Minifigura TC-14 Polybag Set 5000063 Nuevo Sellado Raro</t>
+          <t>LEGO Star Wars: Republic Fighter Tank Box (75342)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Totalmente nuevo</t>
+          <t>De segunda mano</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>MXN $862.15</t>
+          <t>MXN $25.60</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LEGO Star Wars: Galactic Empire Battle Pack Sellado (75134) Nuevo en Caja Retirado</t>
+          <t>Lego Star Wars Imperial Star Destroyer 75394 Construir SOLO Sin Minifiguras</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Totalmente nuevo</t>
+          <t>Nuevo (otro)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MXN $979.72</t>
+          <t>MXN $1 943.96</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>LEGO Star Wars #75134 Paquete de Batalla Imperio Galáctico 100% Completo con Minifiguras</t>
+          <t>LEGO Star Wars: Jedi Scout Fighter (75051) - Nueva Caja ligeramente dañada - ver fotos</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>De segunda mano</t>
+          <t>Totalmente nuevo</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>MXN $685.80</t>
+          <t>MXN $1 985.43</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>NUEVO (otros) LEGO Star Wars 75388 Jedi Bob's Starfighter ¡SE ENVÍA INMEDIATAMENTE!</t>
+          <t>LEGO Star Wars 3 en 1 Skywalker Adventure Pack 66674 Juegos 75269 75270 75271</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Nuevo (otro)</t>
+          <t>Totalmente nuevo</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>MXN $410.50</t>
+          <t>MXN $2 904.54</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>LEGO Star Wars: Naboo Fighter (7141) Completo con Minifiguras</t>
+          <t>LEGO Star Wars: Y-Wing Starfighter (75172)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -650,48 +650,48 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>MXN $749.74</t>
+          <t>MXN $387.40</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>LEGO Star Wars: Dark Trooper Attack (75324)</t>
+          <t>LEGO Star Wars: Mandalorian Speeder Set 75022 - Faltan cascos y Darthmaul</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Totalmente nuevo</t>
+          <t>De segunda mano</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>MXN $97.97</t>
+          <t>MXN $658.58</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>*SELLADO* R2-D2 LEGO 75379 Star Wars 2024 con minifigura Darth Malak 25 años</t>
+          <t>Lego Star Wars Jedi Starfighter sellado</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Totalmente nuevo</t>
+          <t>Nuevo (otro)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>MXN $1 312.82</t>
+          <t>MXN $1 200.95</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LEGO Star Wars: Kylo Ren's TIE Fighter (75179)</t>
+          <t>LEGO Star Wars: Halcón Milenario (75375) 18+ Nuevo y precintado</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -701,167 +701,167 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>MXN $2 792.20</t>
+          <t>MXN $1 156.73</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LEGO 75389 Star Wars Dark Millennium Falcon ENVÍO SOLO SIN MINIFIGURAS SE ENVÍA HOY</t>
+          <t>LEGO Star Wars: AT-TE Walker (7675) 99% Completo</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Nuevo (otro)</t>
+          <t>De segunda mano</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>MXN $2 351.33</t>
+          <t>MXN $2 905.51</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>NO MARCA LEGO Star Wars: Republic Dropship con AT-OT Walker</t>
+          <t>Pantalla de casco iluminada Target Lego Star Wars</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Totalmente nuevo</t>
+          <t>Nuevo (otro)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>MXN $4 440.24</t>
+          <t>MXN $5 810.83</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>LEGO Star Wars: Republic Frigate (7964) - Sin minifiguras</t>
+          <t>LEGO Star Wars: Jango Fett's Slave I (7153)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>De segunda mano</t>
+          <t>Nuevo (otro)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>MXN $2 253.36</t>
+          <t>MXN $3 922.44</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>LEGO Star Wars: 501st Legion Clone Troopers (75280)</t>
+          <t>LEGO Star Wars (75019) - AT-TE Walker. 100% Completo. Usado. con manual. Sin caja.</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Totalmente nuevo</t>
+          <t>De segunda mano</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>MXN $19.40</t>
+          <t>MXN $2 032.89</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LEGO Star Wars: Infiltrado Sith (7663) SIN MINIFIGURAS</t>
+          <t>LEGO Star Wars: Halcón Milenario (75192)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>De segunda mano</t>
+          <t>Totalmente nuevo</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>MXN $391.89</t>
+          <t>MXN $5 264.79</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LEGO Star Wars: Umbaran Mhc (Mobile Heavy Cannon) (75013) ¡Sellado de fábrica!</t>
+          <t>LEGO Star Wars: The Bad Batch™ Attack Shuttle (75314) 99% completo, ¡solo construcción!</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Totalmente nuevo</t>
+          <t>De segunda mano</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>MXN $2 694.23</t>
+          <t>MXN $581.10</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>LEGO Star Wars Naboo Starfighter (75092) Anakin y R2 figuras solo con instrucciones</t>
+          <t>LEGO Star Wars: Galactic Empire Battle Pack Sellado (75134) Nuevo en Caja Retirado</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>De segunda mano</t>
+          <t>Totalmente nuevo</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>MXN $489.66</t>
+          <t>MXN $968.50</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>JUEGO LEGO STAR WARS NUEVO</t>
+          <t>LEGO STAR WARS 7752"COUNT DOOKU'S SOLAR SAILER" LEER</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Totalmente nuevo</t>
+          <t>De segunda mano</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>MXN $258.74 a MXN $2 777.70</t>
+          <t>MXN $1 646.46</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>LEGO Star Wars: Obi-Wan's Hut (75270)</t>
+          <t>Lego Star Wars Jedi Masters Set de Regalo 3 Construcciones Épicas en 1 Caja Juguete Edificio 66787</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>De segunda mano</t>
+          <t>Totalmente nuevo</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>MXN $254.73</t>
+          <t>MXN $1 548.64</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>LEGO Star Wars: Clone Trooper &amp; Battle Droid Battle Pack (75372)</t>
+          <t>LEGO Star Wars First Order General x1 y Stormtroopers x4 Polybag 5004406 30602</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -871,48 +871,48 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>MXN $411.48</t>
+          <t>MXN $387.40</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>LEGO Star Wars Galactic Adventures Pack 66708 Nuevo 3 CONJUNTOS 75311 75310 75299</t>
+          <t>Lego Star Destroyer de Star Wars</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Totalmente nuevo</t>
+          <t>De segunda mano</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>MXN $1 410.80</t>
+          <t>MXN $2 905.51</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>LEGO STAR WARS 7752"COUNT DOOKU'S SOLAR SAILER" LEER</t>
+          <t>LEGO Star Wars: Yavin 4 Rebel Base (75365) Nuevo Sellado de Fábrica</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>De segunda mano</t>
+          <t>Totalmente nuevo</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>MXN $1 665.52</t>
+          <t>MXN $1 452.76</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>LEGO 75388 Star Wars Jedi Bob’s Starfighter en mano envío a todo el mundo nuevo</t>
+          <t>LEGO Star Wars: 75373 | 75344 | 75391 - 3x Juegos LEGO Completos 'Nuevo'</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -922,14 +922,14 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>MXN $979.52</t>
+          <t>MXN $688.03</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>LEGO Star Wars: El Fantasma (75048) 2014 Retirado Nuevo Precintado 234 Piezas</t>
+          <t>LEGO Star Wars: Bounty Hunter Assault Gunship (7930) Nuevo En Caja, Retirado</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -939,14 +939,14 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>MXN $2 351.33</t>
+          <t>MXN $2 324.41</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>75315 LEGO Star Wars The Mandalorian Imperial Light Cruiser, Nuevo, Retirado</t>
+          <t>*SELLADO* R2-D2 LEGO 75379 Star Wars 2024 con minifigura Darth Malak 25 años</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -956,14 +956,14 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>MXN $1 704.71</t>
+          <t>MXN $1 336.54</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Juegos Lego Star Wars plumín 75364, 75365</t>
+          <t>LEGO Star Wars: Kylo Ren's TIE Fighter (75179)</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -973,31 +973,31 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>MXN $2 743.22</t>
+          <t>MXN $2 760.24</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>LEGO Star Wars: Republic Gunship (7163)</t>
+          <t>Lego Star Wars (75338) Emboscada en Ferrix -Sellado de fábrica - ENVÍO RÁPIDO</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>De segunda mano</t>
+          <t>Totalmente nuevo</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>MXN $979.72</t>
+          <t>MXN $1 645.88</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>LEGO Star Wars: Republic Striker-Class Starfighter (9497) - Usado Ver Detalles</t>
+          <t>LEGO Star Wars: Bounty Hunter Speeder Bike Battle Pack (75167)</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1007,14 +1007,14 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>MXN $646.62</t>
+          <t>MXN $58.11</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>PRE-ORDEN! LEGO Star Wars: Desert Skiff &amp; Sarlacc Pit (75396)</t>
+          <t>75315 LEGO Star Wars The Mandalorian Imperial Light Cruiser, Nuevo, Retirado</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1024,99 +1024,99 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>MXN $1 749.72</t>
+          <t>MXN $1 282.30</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>LEGO 75296 Star Wars Darth Vader Cámara de Meditación</t>
+          <t>Lego 7673 Star Wars Magna Guard Starfighter sin caja</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Totalmente nuevo</t>
+          <t>De segunda mano</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>MXN $1 534.05</t>
+          <t>MXN $1 065.35</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Lego Star Wars: Tanque de Asalto Blindado (AAT) (75283) Faltan algunas minifiguras</t>
+          <t>LEGO Star Wars 75389 Dark Millennium Falcon SOLO ENVÍO *SIN MINIFIGURAS</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>De segunda mano</t>
+          <t>Nuevo (otro)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>MXN $97.78</t>
+          <t>MXN $987.87</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>NUEVO SELLADO Lego Star Wars Darth Maul Minifigura Polybag Foil Pack 912285</t>
+          <t>Lego Star Wars 75372 piezas faltantes casi completas</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Totalmente nuevo</t>
+          <t>De segunda mano</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>MXN $194.96</t>
+          <t>MXN $125.91</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Lego Star Wars 75312 Boba Fett’s Starship - 100% Completo con Caja, Manual, Minis</t>
+          <t>LEGO® Star Wars™ Star Wars™ El Halcón Oscuro 75389 - Nuevo Sin Minifiguras</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>De segunda mano</t>
+          <t>Nuevo (otro)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>MXN $782.80</t>
+          <t>MXN $2 324.22</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>LEGO Star Wars Halcón Milenario 25 Aniversario 75375 Kit de Construcción, 921 Piezas</t>
+          <t>LEGO Star Wars: Republic Gunship (7163)</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Totalmente nuevo</t>
+          <t>De segunda mano</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>MXN $587.83</t>
+          <t>MXN $2 130.71</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>LEGO Star Wars: Y-Wing Starfighter (75181) TODAS LAS FIGURAS+ INSTRUCCIONES</t>
+          <t>LEGO Star Wars: AT-TE (4482)</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1126,48 +1126,48 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>MXN $6 270.21</t>
+          <t>MXN $4 261.42</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>LEGO Star Wars Republic Fighter Tank 75342 - SIN MINIFIGURAS INCLUIDAS</t>
+          <t>75089 LEGO Star Wars Legends Geonosis Troopers Sin Minifiguras</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Totalmente nuevo</t>
+          <t>De segunda mano</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>MXN $352.50</t>
+          <t>MXN $369.00</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>LEGO Star Wars: Anakin's Jedi Starfighter (7669)</t>
+          <t>TOTALMENTE NUEVO Lego Star Wars Coruscant Police Gunship 75354</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>De segunda mano</t>
+          <t>Totalmente nuevo</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>MXN $19.40</t>
+          <t>MXN $1 551.54</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>LEGO Star Wars: Desert Skiff &amp; Sarlacc Pit (75396) sin figuras</t>
+          <t>LEGO Star Wars - Jedi Bob’s Starfighter 75388 - ¡NUEVO ENVÍO RÁPIDO GRATIS!!</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1177,14 +1177,14 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>MXN $574.74</t>
+          <t>MXN $735.68</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>LEGO Star Wars: The Bad Batch™ Attack Shuttle (75314) 99% completo, ¡solo construcción!</t>
+          <t>Lego Star Wars 75363 piezas faltantes casi completas</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1194,65 +1194,65 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>MXN $587.83</t>
+          <t>MXN $125.91</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Nuevo en caja Lego Star Wars Darth Vader Cámara de Meditación 75296 - Juego Retirado Envío Gratis</t>
+          <t>LEGO Star Wars: Republic Swamp Speeder 8091 y Ejército Separatista</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Totalmente nuevo</t>
+          <t>De segunda mano</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>MXN $1 528.36</t>
+          <t>MXN $1 162.21</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Lego 75389 Star Wars Reconstruir la Galaxia Halcón Milenario Oscuro Nuevo Precintado</t>
+          <t>LEGO Star Wars: Mandalorian Fang Fighter vs. Interceptor TIE (75348) sin caja</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Totalmente nuevo</t>
+          <t>Nuevo (otro)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>MXN $4 310.77</t>
+          <t>MXN $1 259.06</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>LEGO Star Wars: Infiltrado Sith de colección (7151)</t>
+          <t>LEGO Star Wars 66674 Disney 3 en Uno Skywalker Adventures Pack. Paquete combinado raro</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>De segunda mano</t>
+          <t>Totalmente nuevo</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>MXN $401.69</t>
+          <t>MXN $2 430.95</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Lego Star Wars Personalizado Sith Cañonero Pesado 100% Piezas de Lego, Basado en la construcción 75021</t>
+          <t>LEGO Star Wars: Jango Fett's Slave I (7153), Firmado Temuerra Morrison, Firmado</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1262,31 +1262,31 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>MXN $5 799.16</t>
+          <t>MXN $222.38</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Lego 75388 Star Wars Jedi Bob's Starfighter Nuevo Precintado</t>
+          <t>LEGO 9526 Star Wars: Palpatine's Arrest LEER DESCRIPCIÓN</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Totalmente nuevo</t>
+          <t>De segunda mano</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>MXN $1 567.55</t>
+          <t>MXN $5 811.03</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Lego Star Wars Princesa Leia (Ewok Village) Minifigura 10236</t>
+          <t>(G5/10) LEGO Star Wars Batalla Droides Minifiguras Super Comandante Piloto</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1296,14 +1296,14 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>MXN $1 077.50</t>
+          <t>MXN $126.86 a MXN $741.06</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Lego 75226 Star Wars Battlefront Inferno Squad Battle Pack sellado</t>
+          <t>LEGO Star Wars: AT-TE Walker (75337)</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1313,82 +1313,82 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>MXN $1 567.36</t>
+          <t>MXN $1 065.35</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>LEGO Star Wars: La Batalla de Endor (8038) Incompleto Sin Figuras</t>
+          <t>NO MARCA LEGO Star Wars: Republic Dropship con AT-OT Walker</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>De segunda mano</t>
+          <t>Totalmente nuevo</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>MXN $1 077.69</t>
+          <t>MXN $4 410.42</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>LEGO Star Wars: R2-D2 (75379) - Sin minifiguras</t>
+          <t>LEGO Star Wars Set 75040 - Bicicleta Rueda General Grievous - Mayormente Completo Ver Desc</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Totalmente nuevo</t>
+          <t>De segunda mano</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>MXN $1 124.98</t>
+          <t>MXN $891.02</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>LEGO STAR WARS 75111 DARTH VADER FIGURA EDIFICABLE SEÑOR SITH *RETIRADO *NUEVO EN CAJA</t>
+          <t>LEGO Star Wars: Droid Escape (9490)</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Totalmente nuevo</t>
+          <t>De segunda mano</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>MXN $1 124.73</t>
+          <t>MXN $196.69</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>LEGO Star Wars: Motorizado Caminar AT-AT (10178) 99.8% Motor Completo Funciona</t>
+          <t>LEGO Star Wars: Emperor's Throne Room Diorama (75352)</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>De segunda mano</t>
+          <t>Totalmente nuevo</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>MXN $3 899.28</t>
+          <t>MXN $1 162.21</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>LEGO Star Wars 75342 Republic Fighter Tank sin figuras ni armas Nuevo</t>
+          <t>LEGO Star Wars: R2-D2 (75379) - Sin minifiguras</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1398,82 +1398,82 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>MXN $322.49</t>
+          <t>MXN $1 107.74</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>LEGO Star Wars: Hh-87 Starhopper (75024) sin minifiguras</t>
+          <t>LEGO Star Wars: Umbaran Mhc (Mobile Heavy Cannon) (75013) ¡Sellado de fábrica!</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>De segunda mano</t>
+          <t>Totalmente nuevo</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>MXN $999.73</t>
+          <t>MXN $2 663.39</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>LEGO Star Wars 75164 Rebel Trooper Battle Pack 120 Piezas Nuevo en Caja Sellada</t>
+          <t>LEGO Star Wars 75102 Poe's X-Wing Fighter 99 % completo</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Totalmente nuevo</t>
+          <t>De segunda mano</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>MXN $685.61</t>
+          <t>MXN $1 917.64</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>LEGO Star Wars Hoth Cámara Médica 75203 Nuevo Precintado En Caja</t>
+          <t>Juegos Lego Star Wars plumín 75364, 75365</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>De segunda mano</t>
+          <t>Totalmente nuevo</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>MXN $1 415.83</t>
+          <t>MXN $2 711.81</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>LEGO Star Wars: Traición en Ciudad Nube (75222)</t>
+          <t>LEGO Star Wars: The Bad Batch™ Attack Shuttle (75314)</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>De segunda mano</t>
+          <t>Totalmente nuevo</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>MXN $5 878.32</t>
+          <t>MXN $2 905.51</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>LEGO Star Wars Naboo Droid Tank (Falta droide)</t>
+          <t>LEGO Star Wars: Plo Koon's Jedi Starfighter 8093 con figuras (ver descripción)</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1483,31 +1483,31 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>MXN $799.98</t>
+          <t>MXN $871.65</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>LEGO Star Wars: Republic Gunship (7163)</t>
+          <t>Lego Star Wars Anakin's Jedi Interceptor 75281 Kit de Construcción 248 piezas Juego Retirado</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>De segunda mano</t>
+          <t>Totalmente nuevo</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>MXN $979.72</t>
+          <t>MXN $4 454.93</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>LEGO® Star Wars™ The Mandalorian's N-1 Starfighter 75325 ENVÍO RÁPIDO</t>
+          <t>LEGO Star Wars: Imperial Shuttle Tydirium (75094), Nuevo En Caja, Retirado</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1517,31 +1517,31 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>MXN $783.78</t>
+          <t>MXN $2 905.51</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>LEGO Star Wars: Y-Wing Starfighter (75181) TODAS LAS FIGURAS+ INSTRUCCIONES</t>
+          <t>Juegos Lego Star Wars plumín 75364, 75365</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>De segunda mano</t>
+          <t>Totalmente nuevo</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>MXN $6 270.21</t>
+          <t>MXN $2 711.81</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>LEGO Star Wars 75393 TIE Fighter y X-Wing Mash-up Age 1063 piezas NUEVO Y CAJA SELLADA</t>
+          <t>PRE-ORDEN! LEGO Star Wars: Desert Skiff &amp; Sarlacc Pit (75396)</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1551,14 +1551,14 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>MXN $999.98</t>
+          <t>MXN $1 722.91</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>LEGO Star Wars: Motorizado Caminar AT-AT (10178) 99.8% Motor Completo Funciona</t>
+          <t>LEGO Star Wars: Republic Striker-Class Starfighter (9497) - Usado Ver Detalles</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1568,14 +1568,14 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>MXN $3 899.28</t>
+          <t>MXN $193.51</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>LEGO 75296 Star Wars Darth Vader Cámara de Meditación</t>
+          <t>LEGO Star Wars: Mos Eisley Cantina (75290) Nuevo</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1585,48 +1585,48 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>MXN $1 534.05</t>
+          <t>MXN $19.18</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>LEGO STAR WARS 75111 DARTH VADER FIGURA EDIFICABLE SEÑOR SITH *RETIRADO *NUEVO EN CAJA</t>
+          <t>Lego Star Wars BARC Speeder con Sidecar 75012 Rex Obi-Wan 2013 100% Completo</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Totalmente nuevo</t>
+          <t>De segunda mano</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>MXN $1 124.73</t>
+          <t>MXN $3 389.76</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Nuevo en caja Lego Star Wars Darth Vader Cámara de Meditación 75296 - Juego Retirado Envío Gratis</t>
+          <t>LEGO Star Wars: AT-ST Walker (75153) Figura Incluida (Leer Descripción)</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Totalmente nuevo</t>
+          <t>De segunda mano</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>MXN $1 528.36</t>
+          <t>MXN $484.25</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>LEGO 75280 501ª Legión Clone Troopers Paquete de Batalla Retirado Star Wars Nuevo Precintado</t>
+          <t>LEGO STAR WARS 75349 CAPITÁN REX, NUEVO Y PRECINTADO</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1636,14 +1636,14 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>MXN $842.36</t>
+          <t>MXN $1 133.48</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>NUEVO SELLADO Lego Star Wars Darth Maul Minifigura Polybag Foil Pack 912285</t>
+          <t>LEGO Star Wars - Jedi Bob’s Starfighter 75388 - ¡NUEVO ENVÍO RÁPIDO GRATIS!!</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1653,48 +1653,48 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>MXN $194.96</t>
+          <t>MXN $735.68</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>LEGO Star Wars: Clone Trooper &amp; Battle Droid Battle Pack (75372)</t>
+          <t>LEGO STAR WARS 75257 HALCÓN MILENARIO + INSTRUCCIONES, SIN FIGURAS</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Totalmente nuevo</t>
+          <t>De segunda mano</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>MXN $411.48</t>
+          <t>MXN $629.43</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>LEGO Star Wars Ezra Bridger Minifigura de Duelo en Peridea 75385</t>
+          <t>Lego Star Wars Personalizado Sith Cañonero Pesado 100% Piezas de Lego, Basado en la construcción 75021</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Totalmente nuevo</t>
+          <t>Nuevo (otro)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>MXN $254.73</t>
+          <t>MXN $5 732.77</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>LEGO Star Wars: The Bad Batch™ Attack Shuttle (75314)</t>
+          <t>LEGO Star Wars: Galactic Adventures Pack (66708)</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1704,31 +1704,31 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>MXN $2 743.22</t>
+          <t>MXN $1 549.41</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>LEGO Star Wars: R2-D2™ (75308) Edición 50 Aniversario - Construido</t>
+          <t>LEGO Star Wars Imperial Star Destroyer Juego de Nave Estelar Construible, Juguete Star Wars</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>De segunda mano</t>
+          <t>Totalmente nuevo</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>MXN $646.62</t>
+          <t>MXN $4 261.22</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Lego Star Wars 75179 - Kylo Ren's TIE Fighter abierto incompleto sin figuras</t>
+          <t>LEGO Star Wars: Republic Gunship (7163)</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1738,7 +1738,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>MXN $764.18</t>
+          <t>MXN $2 130.71</t>
         </is>
       </c>
     </row>
@@ -1755,31 +1755,31 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>MXN $1 567.55</t>
+          <t>MXN $1 549.61</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Lego Star Wars Jedi Temple Guard- 75158- 75359- Nuevo Polybag</t>
+          <t>LEGO Star Wars Comando del Senado Minifigura 75088 Comando del Senado Troopers CW</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Totalmente nuevo</t>
+          <t>Nuevo (otro)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>MXN $254.53</t>
+          <t>MXN $232.25</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Lego 75226 Star Wars Battlefront Inferno Squad Battle Pack sellado</t>
+          <t>Lego Brickheadz Star Wars Disney Marvel DC Batman Piratas Boba Fett Iron Man</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1789,14 +1789,14 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>MXN $1 567.36</t>
+          <t>MXN $387.40 a MXN $1 162.21</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>PRE-ORDEN! LEGO Star Wars: Desert Skiff &amp; Sarlacc Pit (75396)</t>
+          <t>LEGO Star Wars Minifigura TC-14 Polybag Set 5000063 Nuevo Sellado Raro</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1806,31 +1806,31 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>MXN $1 749.72</t>
+          <t>MXN $891.02</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Lego 75389 Star Wars Reconstruir la Galaxia Halcón Milenario Oscuro Nuevo Precintado</t>
+          <t>LEGO STAR WARS 75327 LUKE SKYWALKER ROJO 5 CASCO, INSTRUCCIONES, CAJA</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Totalmente nuevo</t>
+          <t>Nuevo (otro)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>MXN $4 310.77</t>
+          <t>MXN $503.42</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Lego 75173 Star Wars Luke's Landspeeder GB|Sellado | RETIRADO de 2017</t>
+          <t>LEGO 75388 Star Wars Jedi Bob’s Starfighter en mano envío a todo el mundo nuevo</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1840,14 +1840,14 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>MXN $882.48</t>
+          <t>MXN $968.31</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>LEGO Star Wars: Endor Speeder Chase Diorama (75353) 18+ Nuevo y precintado</t>
+          <t>LEGO STAR WARS EL HALCÓN DE FUEGO CARMESÍ JOVEN JEDI AVENTURAS SET DE INICIO NUEVO SELLADO</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1857,65 +1857,65 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>MXN $1 099.73</t>
+          <t>MXN $430.79</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>LEGO 40333 Star Wars: Battle of Hoth Edición 20 Aniversario - COMPLETO - leer</t>
+          <t>¡COMO NUEVO! - LEGO Star Wars: Encuentro en Jakku (75148)</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Nuevo (otro)</t>
+          <t>Totalmente nuevo</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>MXN $685.80</t>
+          <t>MXN $774.80</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>LEGO STAR WARS 7752"COUNT DOOKU'S SOLAR SAILER" LEER</t>
+          <t>LEGO 75280 501ª Legión Clone Troopers Paquete de Batalla Retirado Star Wars Nuevo Precintado</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>De segunda mano</t>
+          <t>Totalmente nuevo</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>MXN $1 665.52</t>
+          <t>MXN $832.72</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Lego Star Wars: Tanque de Asalto Blindado (AAT) (75283) Faltan algunas minifiguras</t>
+          <t>LEGO Star Wars 75164 Rebel Trooper Battle Pack 120 Piezas Nuevo en Caja Sellada</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>De segunda mano</t>
+          <t>Totalmente nuevo</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>MXN $97.78</t>
+          <t>MXN $677.76</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>LEGO Star Wars Darth Vader Minifigura + Caja de Lata Edición Limitada (¡¡NUEVO SELLADO!!!)</t>
+          <t>LEGO Star Wars 75342 Republic Fighter Tank sin figuras ni armas Nuevo</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -1925,14 +1925,14 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>MXN $352.70</t>
+          <t>MXN $317.48</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>LEGO Star Wars R3-M2 Polybag 40268 (SELLADO)</t>
+          <t>LEGO Star Wars: 501st Legion Clone Troopers (75280) Nuevo/Sellado</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1942,82 +1942,82 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>MXN $312.53</t>
+          <t>MXN $755.24</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>LEGO Star Wars: Duelo en Geonosis (75017) sin minifiguras/minifigura acc</t>
+          <t>LEGO Star Wars: Desert Skiff (9496) sin miniatura</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Nuevo (otro)</t>
+          <t>De segunda mano</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>MXN $2 350.35</t>
+          <t>MXN $484.25</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>LEGO Star Wars: Obi-Wan Kenobi vs. Darth Vader (75334) Sin caja</t>
+          <t>LEGO Star Wars: The Bad Batch™ Attack Shuttle (75314)</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Nuevo (otro)</t>
+          <t>Totalmente nuevo</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>MXN $225.34</t>
+          <t>MXN $2 905.51</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>LEGO Star Wars: Bounty Hunter Assault Gunship (7930) Nuevo En Caja, Retirado</t>
+          <t>Lego Star Wars 75179 - Kylo Ren's TIE Fighter abierto incompleto sin figuras</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Totalmente nuevo</t>
+          <t>De segunda mano</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>MXN $2 351.33</t>
+          <t>MXN $755.43</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Lego 75389 Star Wars Reconstruye la Galaxia Halcón Milenario Oscuro (SIN MINIFIGURAS)</t>
+          <t>Lego 7259 Star Wars ARC-170 Starfighter Completo Sin Caja Ni Manual</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Nuevo (otro)</t>
+          <t>De segunda mano</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>MXN $2 351.33</t>
+          <t>MXN $2 178.94</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Endor Rebel &amp; Imperial Trooper Battle Pack #9489 LEGO Star Wars Set Nuevo</t>
+          <t>LEGO Star Wars: Inferno Squad Battle Pack (75226) Nuevo/Sellado</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2027,65 +2027,65 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>MXN $979.33</t>
+          <t>MXN $968.31</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>**NUEVO** 100% Precisa LEGO Star Wars Lucas Yoda Fuente - 6471930 - 152 Piezas</t>
+          <t>LEGO STAR WARS 75249 Y 75258 ALA Y PODRACER + INSTRUCCIONES, SIN FIGURAS</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Totalmente nuevo</t>
+          <t>De segunda mano</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>MXN $1 547.76</t>
+          <t>MXN $377.41</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Lego 7673 Star Wars Magna Guard Starfighter sin caja</t>
+          <t>LEGO Star Wars: General Grievous's Starfighter (75286) - Retirado - Nuevo Precintado</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>De segunda mano</t>
+          <t>Totalmente nuevo</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>MXN $1 077.69</t>
+          <t>MXN $2 886.14</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>LEGO Star Wars: AT-TE Walker (7675)</t>
+          <t>NUEVO SELLADO Lego Star Wars Darth Maul Minifigura Polybag Foil Pack 912285</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>De segunda mano</t>
+          <t>Totalmente nuevo</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>MXN $1 959.24</t>
+          <t>MXN $192.73</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>LEGO® Star Wars Mos Espa Podrace Juego de Construcción 75380 NUEVO</t>
+          <t>Nuevo en caja Lego Star Wars Darth Vader Cámara de Meditación 75296 - Juego Retirado Envío Gratis</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -2095,7 +2095,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>MXN $999.31</t>
+          <t>MXN $1 510.87</t>
         </is>
       </c>
     </row>
@@ -2112,31 +2112,31 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>MXN $1 685.12</t>
+          <t>MXN $1 665.83</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>LEGO Star Wars: Y-Wing Starfighter (75181)</t>
+          <t>LEGO Star Wars: AT-TE Walker (7675) 99% Completo</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Totalmente nuevo</t>
+          <t>De segunda mano</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>MXN $10 287.06</t>
+          <t>MXN $2 905.51</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>LEGO Star Wars - Batalla de Endor (40362) Nuevo En Caja Nuevo En Caja Diorama Promocional</t>
+          <t>75315 LEGO Star Wars The Mandalorian Imperial Light Cruiser, Nuevo, Retirado</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -2146,31 +2146,31 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>MXN $862.15</t>
+          <t>MXN $2 179.13</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>LEGO 75249 - Star Wars: Resistance Y-Wing Starfighter 🙂 Retirado 🙂 *Nuevo y sellado*</t>
+          <t>LEGO Star Wars #75134 Paquete de Batalla Imperio Galáctico 100% Completo con Minifiguras</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Totalmente nuevo</t>
+          <t>De segunda mano</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>MXN $1 566.57</t>
+          <t>MXN $677.95</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Lego 40686 Star Wars Federación de Comercio Portador Nuevo Sellado + Bolsa de Monedas/Poliéster 4 de Mayo</t>
+          <t>Star Wars Imperial Patrol Battle Pack - Lego 75207 - Sellado 99 Piezas - Retirado</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -2180,48 +2180,48 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>MXN $1 076.71</t>
+          <t>MXN $503.62</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>LEGO Star Wars: The Bad Batch™ Attack Shuttle (75314) 99% completo, ¡solo construcción!</t>
+          <t>LEGO Star Wars Primera Orden Caminante de Asalto Pesado (75189) - Nuevo y Retirado</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>De segunda mano</t>
+          <t>Totalmente nuevo</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>MXN $587.83</t>
+          <t>MXN $4 261.22</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>LEGO Star Wars: General Grievous's Starfighter (75286) - Retirado - Nuevo Precintado</t>
+          <t>NUEVO (otros) LEGO Star Wars 75388 Jedi Bob's Starfighter ¡SE ENVÍA INMEDIATAMENTE!</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Totalmente nuevo</t>
+          <t>Nuevo (otro)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>MXN $2 919.57</t>
+          <t>MXN $405.80</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>LEGO Star Wars 30005 Imperial Speeder Bicicleta Nuevo Sellado Retirado Poliebag Set Raro</t>
+          <t>¡COMO NUEVO! - LEGO Star Wars: Droid Fighter (7111) - Nuevo en caja</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -2231,48 +2231,48 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>MXN $391.69</t>
+          <t>MXN $677.95</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>LEGO Star Wars: Inquisitor Transport Scythe (75336), SIN MINIFIGURAS, SIN CAJA, NUEVO</t>
+          <t>*NUEVO* LEGO Star Wars 10188 ESTRELLA DE LA MUERTE Luke Han Solo Dianoga Droids *RETIRADO*</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Nuevo (otro)</t>
+          <t>Totalmente nuevo</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>MXN $1 371.41</t>
+          <t>MXN $17 917.33</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>LEGO Star Wars: Anakin's Jedi Starfighter (7669)</t>
+          <t>LEGO 75151 Star Wars Clon Turbo Tanque Nuevo Sellado 2016 Descontinuado RARO</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>De segunda mano</t>
+          <t>Totalmente nuevo</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>MXN $19.40</t>
+          <t>MXN $9 206.56</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Lego Brickheadz Star Wars Disney Marvel DC Batman Piratas Boba Fett Iron Man</t>
+          <t>¡NUEVO! LEGO 75389 Dark Falcon SOLO ENVÍO. SIN MINIFIGURAS. ¡ENVÍO INMEDIATO!</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -2282,14 +2282,14 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>MXN $391.89 a MXN $1 175.66</t>
+          <t>MXN $1 839.19</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>LEGO Star Wars Poe Dameron's X-wing Fighter 75273 NUEVO CAJA SELLADA NSB</t>
+          <t>LEGO Star Wars Republic Fighter Tank 75342 - SIN MINIFIGURAS INCLUIDAS</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -2299,14 +2299,14 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>MXN $1 957.48</t>
+          <t>MXN $348.47</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>LEGO Star Wars: BARC Speeder Escape Building Toy Set 75378 Nuevo en caja</t>
+          <t>LEGO Star Wars 75197 First Order Specialists Battle Pack 108 Piezas</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -2316,48 +2316,48 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>MXN $474.99</t>
+          <t>MXN $484.06</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>LEGO Star Wars: Halcón Milenario (75375) 18+ Nuevo y precintado</t>
+          <t>LEGO Star Wars: Jabba's Sail Barge (75020) Caja Nueva, Dañada, Sin abrir</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Totalmente nuevo</t>
+          <t>Nuevo (otro)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>MXN $1 174.73</t>
+          <t>MXN $7 747.84</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>LEGO 7661 Jedi Starfighter con Hyperdrive Booster Ring Star Wars Episodio 3 2007</t>
+          <t>Lego 9494 Star Wars Anakin's Jedi Interceptor Totalmente Nuevo Sellado 2012 Descontinuado</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>De segunda mano</t>
+          <t>Totalmente nuevo</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>MXN $2 165.57</t>
+          <t>MXN $3 200.14</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>LEGO Star Wars: Clone Trooper Command Station (40558) Nuevo Precintado</t>
+          <t>Lego 75389 Star Wars Reconstruir la Galaxia Halcón Milenario Oscuro Nuevo Precintado</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -2367,14 +2367,14 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>MXN $645.64</t>
+          <t>MXN $4 261.42</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Nuevo LEGO Star Wars: R2-D2 (75379)</t>
+          <t>LEGO Arte Star Wars Los Sith 31200 18+ 3406 piezas Nuevo Sellado de Fábrica</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -2384,14 +2384,14 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>MXN $1 626.14</t>
+          <t>MXN $3 291.95</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>LEGO Star Wars Capitán Rex Ala Y Microfighter Juguete de Construcción 75391 ENVÍO EL MISMO DÍA</t>
+          <t>LEGO Star Wars: The Justifier (75323) Retirado | Sellado | NUEVO</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -2401,14 +2401,14 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>MXN $480.06</t>
+          <t>MXN $2 711.81</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>LEGO Star Wars: Imperial Dropship - Edición 20 Aniversario (75262)</t>
+          <t>Nuevo LEGO Star Wars: R2-D2 (75379)</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -2418,75 +2418,75 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>MXN $979.52</t>
+          <t>MXN $1 607.52</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Lego Star Wars Personalizado Sith Cañonero Pesado 100% Piezas de Lego, Basado en la construcción 75021</t>
+          <t>LEGO Star Wars Stormtrooper Commander | 75531 | Retirado 2017 | Nuevo y precintado</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Nuevo (otro)</t>
+          <t>Totalmente nuevo</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>MXN $5 799.16</t>
+          <t>MXN $1 162.01</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>¡ENVÍO RÁPIDO! LEGO Star Wars AT-AT 75288 (SIN CAJA ORIGINAL) Leer DESCRIPCIÓN.</t>
+          <t>LEGO Star Wars: Inquisitor Transport Scythe (75336), SIN MINIFIGURAS, SIN CAJA, NUEVO</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Totalmente nuevo</t>
+          <t>Nuevo (otro)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>MXN $3 526.99</t>
+          <t>MXN $1 355.71</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>LEGO Star Wars: Traición en Ciudad Nube (75222)</t>
+          <t>LEGO Star Wars: El Fantasma (75048) 2014 Retirado Nuevo Precintado 234 Piezas</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>De segunda mano</t>
+          <t>Totalmente nuevo</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>MXN $5 878.32</t>
+          <t>MXN $2 324.41</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Lego Star Wars 75170 El Fantasma Incluye Minifigura Chopper. Completo</t>
+          <t>LEGO Star Wars: Duelo en Geonosis (75017) sin minifiguras/minifigura acc</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>De segunda mano</t>
+          <t>Nuevo (otro)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>MXN $1 567.36</t>
+          <t>MXN $2 323.44</t>
         </is>
       </c>
     </row>
